--- a/Util/Arquivos/Relatorios/cruzamento_estilo_lideranca_x_motivacao_equipe.xlsx
+++ b/Util/Arquivos/Relatorios/cruzamento_estilo_lideranca_x_motivacao_equipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Como você classificaria o nível geral de motivação da equipe?</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade</t>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Muito alto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Muito baixo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Médio</t>
         </is>
       </c>
     </row>
@@ -456,298 +471,108 @@
           <t>Autocrático</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
+      <c r="B2" t="n">
+        <v>4.55</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>27.27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>54.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Autocrático</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
+          <t>Democrático</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>6.67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Autocrático</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Muito baixo</t>
-        </is>
+          <t xml:space="preserve">Desorganizado </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Autocrático</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Médio</t>
-        </is>
+          <t>Liberal</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>43.48</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Democrático</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
+          <t>Situacional</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>23.68</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Democrático</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Democrático</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Muito alto</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Democrático</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Muito baixo</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Democrático</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Médio</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desorganizado </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Muito baixo</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Liberal</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Liberal</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Liberal</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Muito alto</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Liberal</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Muito baixo</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Liberal</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Médio</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Situacional</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Situacional</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Situacional</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Muito alto</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Situacional</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Muito baixo</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Situacional</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Médio</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>21</v>
+        <v>13.16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>55.26</v>
       </c>
     </row>
   </sheetData>
